--- a/OutputFiles/TC02_Canine_CaseFiles_Study-NCATS_Neo4jData.xlsx
+++ b/OutputFiles/TC02_Canine_CaseFiles_Study-NCATS_Neo4jData.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1690" uniqueCount="225">
   <si>
     <t>Case ID</t>
   </si>
